--- a/策划/表格配置/J-剧情.xlsx
+++ b/策划/表格配置/J-剧情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
   <si>
     <t>字段中文</t>
   </si>
@@ -87,33 +87,6 @@
 </t>
   </si>
   <si>
-    <t>【立绘翻转状态】
-0---默认状态
-1---翻转状态
-【配置立绘层数】
-   0----不发生前置（不作处理）
-   1-----置于最前
-【配置立绘缩放比】
-  100--100%
-  120--120%
-【配置立绘位置】
-    -3 ---------左侧画面外
-    -2---------左侧靠边
-    -1---------左侧的中间
-     0---------正中间
-     1----------右侧的中间
-     2----------右侧靠边
-     3----------右侧画面外
-当动画项存在配置时，无视该位置配置项
-【配置立绘一次性气泡表情】
-0-无气球表情
-数值-具体气球表情
-【配置立绘一次性气泡表情的左右位置】
-0-左边
-1-右边
-表情序号：1=汗 2=哭 3=灵感 4=生气 5=受伤 6=感叹号 7=问号 8=无语 9=微笑可爱脸 10=爱心 11=烦躁</t>
-  </si>
-  <si>
     <t>配置该段对话所使用的音效</t>
   </si>
   <si>
@@ -174,14 +147,6 @@
   </si>
   <si>
     <t>ScreenAnimation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放何种全屏动画
-1，屏幕震动
-2，背景放大
-3，黑屏
-4，白屏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -268,18 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>nu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;int&gt;</t>
   </si>
   <si>
@@ -319,23 +272,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Imageface1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xi</t>
+    <t>0,-1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>【立绘翻转状态】
 0---默认状态
 1---翻转状态
-【配置立绘层数】
-   0----不发生前置（不作处理）
-   1-----置于最前
-【配置立绘缩放比】
-  100--100%
-  120--120%
 【配置立绘位置】
     -3 ---------左侧画面外
     -2---------左侧靠边
@@ -344,6 +299,13 @@
      1----------右侧的中间
      2----------右侧靠边
      3----------右侧画面外
+【配置立绘缩放比】
+  100--100%
+  120--120%
+//已下未制作//
+【配置立绘层数】
+   0----不发生前置（不作处理）
+   1-----置于最前
 当动画项存在配置时，无视该位置配置项
 【配置立绘一次性气泡表情】
 0-无气球表情
@@ -352,6 +314,22 @@
 0-左边
 1-右边
 表情序号：1=汗 2=哭 3=灵感 4=生气 5=受伤 6=感叹号 7=问号 8=无语 9=微笑可爱脸 10=爱心 11=烦躁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放何种全屏动画
+1，屏幕震动
+2，背景放大//未制作
+3，黑屏
+4，白屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Imageface1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xi</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -724,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -749,16 +727,16 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>2</v>
@@ -767,31 +745,31 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -805,7 +783,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -816,26 +794,26 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
-        <v>32</v>
+      <c r="H2" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>58</v>
+        <v>61</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
-      <c r="N2" t="s">
-        <v>58</v>
+        <v>31</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>11</v>
@@ -843,45 +821,45 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" t="s">
-        <v>68</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="O3" s="3" t="s">
@@ -896,7 +874,7 @@
         <v>1001</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3">
         <v>10001</v>
@@ -905,34 +883,30 @@
         <v>32</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4">
+        <v>49</v>
+      </c>
+      <c r="H4" s="3">
         <v>1</v>
       </c>
       <c r="I4" s="3">
         <v>10001</v>
       </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>55</v>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="L4" s="3">
         <v>10002</v>
       </c>
-      <c r="M4" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" t="s">
-        <v>55</v>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -943,7 +917,7 @@
         <v>1001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D5" s="3">
         <v>10001</v>
@@ -952,34 +926,32 @@
         <v>32</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5">
+        <v>49</v>
+      </c>
+      <c r="H5" s="3">
         <v>4</v>
       </c>
       <c r="I5" s="3">
         <v>10001</v>
       </c>
-      <c r="J5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K5" t="s">
-        <v>55</v>
+      <c r="J5" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="L5" s="3">
         <v>10003</v>
       </c>
-      <c r="M5" t="s">
-        <v>57</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -993,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1021,16 +993,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -1039,13 +1011,13 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K1" t="s">
         <v>5</v>
@@ -1054,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="M1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N1" t="s">
         <v>7</v>
@@ -1063,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="P1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1080,7 +1052,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1092,10 +1064,10 @@
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -1104,7 +1076,7 @@
         <v>12</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N2" t="s">
         <v>11</v>
@@ -1121,40 +1093,40 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="G3" t="s">
-        <v>36</v>
-      </c>
       <c r="H3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>15</v>
@@ -1171,16 +1143,16 @@
         <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>20</v>
@@ -1189,31 +1161,31 @@
         <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="P5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/策划/表格配置/J-剧情.xlsx
+++ b/策划/表格配置/J-剧情.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
   <si>
     <t>字段中文</t>
   </si>
@@ -229,58 +229,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>这次是10003说的话,10002消失了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>List&lt;int&gt;</t>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backGround</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bgm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sayerID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Happy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>role1ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-1,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -325,11 +277,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>角色2ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role1ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>role2ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次是10002说的话,10002消失了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Imageface1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xi</t>
+    <t>CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-1,100</t>
+  </si>
+  <si>
+    <t>0,1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-1,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2,120</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -355,14 +378,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,7 +417,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -384,15 +440,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -405,10 +467,21 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
+    <cellStyle name="适中" xfId="1" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -700,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,20 +798,20 @@
     <col min="15" max="15" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -747,7 +820,7 @@
       <c r="G1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="3" t="s">
@@ -760,7 +833,7 @@
         <v>6</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>7</v>
@@ -768,24 +841,27 @@
       <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="3" t="s">
+      <c r="P1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -794,67 +870,70 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>60</v>
+      <c r="P2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>15</v>
@@ -862,96 +941,349 @@
       <c r="N3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3">
+      <c r="P3" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
         <v>10001001</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4">
         <v>1001</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4">
         <v>10001</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" t="s">
         <v>51</v>
       </c>
       <c r="G4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="3">
-        <v>1</v>
-      </c>
-      <c r="I4" s="3">
+      <c r="I4">
         <v>10001</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="3">
-        <v>10002</v>
-      </c>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="O4" s="3" t="s">
+      <c r="K4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>10002</v>
+      </c>
+      <c r="N4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="3">
+    <row r="5" spans="1:16">
+      <c r="A5">
         <v>10001002</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5">
         <v>1001</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10001</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5">
+        <v>10002</v>
+      </c>
+      <c r="E5">
         <v>32</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>52</v>
+      <c r="F5" t="s">
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>49</v>
       </c>
-      <c r="H5" s="3">
-        <v>4</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="I5">
+        <v>10002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>74</v>
+      </c>
+      <c r="L5">
+        <v>10003</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>10001003</v>
+      </c>
+      <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6">
         <v>10001</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="3">
-        <v>10003</v>
-      </c>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3" t="s">
+      <c r="E6">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
         <v>65</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="I6">
+        <v>10002</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6">
+        <v>10002</v>
+      </c>
+      <c r="N6" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>10001004</v>
+      </c>
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>10002</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>123321</v>
+      </c>
+      <c r="I7">
+        <v>10002</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7">
+        <v>10002</v>
+      </c>
+      <c r="N7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8">
+        <v>10001005</v>
+      </c>
+      <c r="B8">
+        <v>1001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8">
+        <v>10001</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>3333</v>
+      </c>
+      <c r="I8">
+        <v>10001</v>
+      </c>
+      <c r="K8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L8">
+        <v>10002</v>
+      </c>
+      <c r="N8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9">
+        <v>10001006</v>
+      </c>
+      <c r="B9">
+        <v>1001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>10002</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>12233333</v>
+      </c>
+      <c r="I9">
+        <v>10002</v>
+      </c>
+      <c r="K9" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9">
+        <v>10002</v>
+      </c>
+      <c r="N9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10">
+        <v>10001007</v>
+      </c>
+      <c r="B10">
+        <v>1001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10">
+        <v>10001</v>
+      </c>
+      <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>3333</v>
+      </c>
+      <c r="I10">
+        <v>10001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10">
+        <v>10002</v>
+      </c>
+      <c r="N10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11">
+        <v>10001008</v>
+      </c>
+      <c r="B11">
+        <v>1001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11">
+        <v>10002</v>
+      </c>
+      <c r="E11">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>3333</v>
+      </c>
+      <c r="I11">
+        <v>10001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>74</v>
+      </c>
+      <c r="L11">
+        <v>10002</v>
+      </c>
+      <c r="N11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>10001009</v>
+      </c>
+      <c r="B12">
+        <v>1001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12">
+        <v>10001</v>
+      </c>
+      <c r="E12">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>3333</v>
+      </c>
+      <c r="I12">
+        <v>10001</v>
+      </c>
+      <c r="K12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12">
+        <v>10002</v>
+      </c>
+      <c r="N12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>10001010</v>
+      </c>
+      <c r="B13">
+        <v>1001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13">
+        <v>10002</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>3333</v>
+      </c>
+      <c r="I13">
+        <v>10001</v>
+      </c>
+      <c r="K13" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13">
+        <v>10002</v>
+      </c>
+      <c r="N13" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1164,7 +1496,7 @@
         <v>25</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>45</v>
@@ -1173,7 +1505,7 @@
         <v>41</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>45</v>
@@ -1182,7 +1514,7 @@
         <v>46</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>22</v>

--- a/策划/表格配置/J-剧情.xlsx
+++ b/策划/表格配置/J-剧情.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
   <si>
     <t>字段中文</t>
   </si>
@@ -325,10 +325,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CG图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,6 +350,17 @@
   <si>
     <t>0,-2,120</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景替换为1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGTest1</t>
   </si>
 </sst>
 </file>
@@ -773,128 +780,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
-    <col min="4" max="4" width="12.25" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="31.625" customWidth="1"/>
-    <col min="7" max="7" width="19.25" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="17.25" customWidth="1"/>
-    <col min="10" max="10" width="19.25" customWidth="1"/>
-    <col min="11" max="11" width="24.75" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="15.75" customWidth="1"/>
-    <col min="15" max="15" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
+    <col min="5" max="5" width="12.25" customWidth="1"/>
+    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="7" max="7" width="31.625" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="18.875" customWidth="1"/>
+    <col min="10" max="10" width="17.25" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="12" max="12" width="24.75" customWidth="1"/>
+    <col min="13" max="13" width="16.75" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="15.75" customWidth="1"/>
+    <col min="16" max="16" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>36</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="P1" s="5" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="4" t="s">
         <v>11</v>
       </c>
     </row>
@@ -902,87 +909,87 @@
       <c r="A3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4">
         <v>10001001</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>1001</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>53</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>10001</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>32</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>51</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>49</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>10001</v>
       </c>
-      <c r="K4" t="s">
-        <v>75</v>
-      </c>
-      <c r="L4">
-        <v>10002</v>
-      </c>
-      <c r="N4" t="s">
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4">
+        <v>10002</v>
+      </c>
+      <c r="O4" t="s">
         <v>54</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -990,37 +997,37 @@
       <c r="A5">
         <v>10001002</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1001</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>53</v>
       </c>
-      <c r="D5">
-        <v>10002</v>
-      </c>
       <c r="E5">
+        <v>10002</v>
+      </c>
+      <c r="F5">
         <v>32</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>64</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>49</v>
       </c>
-      <c r="I5">
-        <v>10002</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5">
+      <c r="J5">
+        <v>10002</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5">
         <v>10003</v>
       </c>
-      <c r="N5" t="s">
-        <v>72</v>
-      </c>
       <c r="O5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1028,34 +1035,34 @@
       <c r="A6">
         <v>10001003</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>1001</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>10001</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>32</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>65</v>
       </c>
-      <c r="I6">
-        <v>10002</v>
-      </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6">
-        <v>10002</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="J6">
+        <v>10002</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6">
+        <v>10002</v>
+      </c>
+      <c r="O6" t="s">
         <v>54</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1063,130 +1070,142 @@
       <c r="A7">
         <v>10001004</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
         <v>1001</v>
       </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>10002</v>
+      <c r="D7" t="s">
+        <v>53</v>
       </c>
       <c r="E7">
+        <v>10001</v>
+      </c>
+      <c r="F7">
         <v>32</v>
       </c>
-      <c r="F7">
-        <v>123321</v>
-      </c>
-      <c r="I7">
-        <v>10002</v>
-      </c>
-      <c r="K7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7">
-        <v>10002</v>
-      </c>
-      <c r="N7" t="s">
-        <v>73</v>
+      <c r="G7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7">
+        <v>10002</v>
+      </c>
+      <c r="L7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>10002</v>
       </c>
       <c r="O7" t="s">
-        <v>63</v>
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8">
         <v>10001005</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8">
         <v>1001</v>
       </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8">
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8">
         <v>10001</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>32</v>
       </c>
-      <c r="F8">
-        <v>3333</v>
-      </c>
-      <c r="I8">
-        <v>10001</v>
-      </c>
-      <c r="K8" t="s">
-        <v>71</v>
-      </c>
-      <c r="L8">
-        <v>10002</v>
-      </c>
-      <c r="N8" t="s">
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8">
+        <v>10002</v>
+      </c>
+      <c r="L8" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8">
+        <v>10002</v>
+      </c>
+      <c r="O8" t="s">
         <v>54</v>
+      </c>
+      <c r="P8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9">
         <v>10001006</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1001</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>62</v>
       </c>
-      <c r="D9">
-        <v>10002</v>
-      </c>
       <c r="E9">
+        <v>10002</v>
+      </c>
+      <c r="F9">
         <v>32</v>
       </c>
-      <c r="F9">
-        <v>12233333</v>
-      </c>
-      <c r="I9">
-        <v>10002</v>
-      </c>
-      <c r="K9" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9">
-        <v>10002</v>
-      </c>
-      <c r="N9" t="s">
-        <v>54</v>
+      <c r="G9">
+        <v>123321</v>
+      </c>
+      <c r="J9">
+        <v>10002</v>
+      </c>
+      <c r="L9" t="s">
+        <v>73</v>
+      </c>
+      <c r="M9">
+        <v>10002</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10">
         <v>10001007</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>1001</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>62</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10001</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>32</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3333</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>10001</v>
       </c>
-      <c r="K10" t="s">
-        <v>71</v>
-      </c>
-      <c r="L10">
-        <v>10002</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <v>10002</v>
+      </c>
+      <c r="O10" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1194,31 +1213,31 @@
       <c r="A11">
         <v>10001008</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>1001</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>62</v>
       </c>
-      <c r="D11">
-        <v>10002</v>
-      </c>
       <c r="E11">
+        <v>10002</v>
+      </c>
+      <c r="F11">
         <v>32</v>
       </c>
-      <c r="F11">
-        <v>3333</v>
-      </c>
-      <c r="I11">
-        <v>10001</v>
-      </c>
-      <c r="K11" t="s">
-        <v>74</v>
-      </c>
-      <c r="L11">
-        <v>10002</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="G11">
+        <v>12233333</v>
+      </c>
+      <c r="J11">
+        <v>10002</v>
+      </c>
+      <c r="L11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11">
+        <v>10002</v>
+      </c>
+      <c r="O11" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1226,31 +1245,31 @@
       <c r="A12">
         <v>10001009</v>
       </c>
-      <c r="B12">
-        <v>1001</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1002</v>
+      </c>
+      <c r="D12" t="s">
         <v>62</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>10001</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>32</v>
       </c>
-      <c r="F12">
-        <v>3333</v>
-      </c>
-      <c r="I12">
+      <c r="G12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12">
         <v>10001</v>
       </c>
-      <c r="K12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12">
-        <v>10002</v>
-      </c>
-      <c r="N12" t="s">
+      <c r="L12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M12">
+        <v>10002</v>
+      </c>
+      <c r="O12" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1258,31 +1277,95 @@
       <c r="A13">
         <v>10001010</v>
       </c>
-      <c r="B13">
-        <v>1001</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>1002</v>
+      </c>
+      <c r="D13" t="s">
         <v>62</v>
       </c>
-      <c r="D13">
-        <v>10002</v>
-      </c>
       <c r="E13">
+        <v>10002</v>
+      </c>
+      <c r="F13">
         <v>32</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3333</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>10001</v>
       </c>
-      <c r="K13" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13">
-        <v>10002</v>
-      </c>
-      <c r="N13" t="s">
+      <c r="L13" t="s">
+        <v>73</v>
+      </c>
+      <c r="M13">
+        <v>10002</v>
+      </c>
+      <c r="O13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>10001011</v>
+      </c>
+      <c r="C14">
+        <v>1002</v>
+      </c>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14">
+        <v>10001</v>
+      </c>
+      <c r="F14">
+        <v>32</v>
+      </c>
+      <c r="G14">
+        <v>3333</v>
+      </c>
+      <c r="J14">
+        <v>10001</v>
+      </c>
+      <c r="L14" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14">
+        <v>10002</v>
+      </c>
+      <c r="O14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>10001012</v>
+      </c>
+      <c r="C15">
+        <v>1002</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15">
+        <v>10002</v>
+      </c>
+      <c r="F15">
+        <v>32</v>
+      </c>
+      <c r="G15">
+        <v>3333</v>
+      </c>
+      <c r="J15">
+        <v>10001</v>
+      </c>
+      <c r="L15" t="s">
+        <v>73</v>
+      </c>
+      <c r="M15">
+        <v>10002</v>
+      </c>
+      <c r="O15" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1295,228 +1378,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.875" customWidth="1"/>
-    <col min="2" max="2" width="35.25" customWidth="1"/>
-    <col min="3" max="3" width="21.875" customWidth="1"/>
-    <col min="4" max="4" width="28.5" customWidth="1"/>
-    <col min="5" max="5" width="15.625" customWidth="1"/>
-    <col min="6" max="6" width="43.875" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="34.25" customWidth="1"/>
-    <col min="9" max="9" width="20.625" customWidth="1"/>
-    <col min="10" max="10" width="17.5" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="48.5" customWidth="1"/>
-    <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="23.25" customWidth="1"/>
-    <col min="15" max="15" width="39" customWidth="1"/>
+    <col min="3" max="3" width="35.25" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="5" max="5" width="28.5" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="43.875" customWidth="1"/>
+    <col min="8" max="8" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="34.25" customWidth="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1"/>
+    <col min="11" max="11" width="17.5" customWidth="1"/>
+    <col min="12" max="12" width="26" customWidth="1"/>
+    <col min="13" max="13" width="48.5" customWidth="1"/>
+    <col min="14" max="14" width="18" customWidth="1"/>
+    <col min="15" max="15" width="23.25" customWidth="1"/>
+    <col min="16" max="16" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
         <v>27</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>7</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>8</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
         <v>31</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>31</v>
       </c>
       <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>12</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>12</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>37</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>39</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>40</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>14</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>42</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" ht="409.5" customHeight="1">
+    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="O5" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/策划/表格配置/J-剧情.xlsx
+++ b/策划/表格配置/J-剧情.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="82">
   <si>
     <t>字段中文</t>
   </si>
@@ -77,21 +77,7 @@
     <t>配置该段对话所使用的场景</t>
   </si>
   <si>
-    <t>对话文本的字号，一个对话文本只能是同一个字号</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[FF0000]文本颜色[-]
-[B]粗体[/B]
-[I]斜体[/I]
-\n 主动换行
-</t>
-  </si>
-  <si>
     <t>配置该段对话所使用的音效</t>
-  </si>
-  <si>
-    <t>长度最长10个字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Bgm</t>
@@ -277,6 +263,79 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Sad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>voice_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次是10002说的话,10002消失了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-1,100</t>
+  </si>
+  <si>
+    <t>0,1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,-1,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-1,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,-2,120</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGImage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景替换为1002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CGTest1</t>
+  </si>
+  <si>
+    <t>textPositon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居中</t>
+  </si>
+  <si>
     <t>角色2ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,89 +344,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dialogText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>role1ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Imageface1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>role2ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Sad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>voice_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次是10002说的话,10002消失了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>……</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>textSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Imageface1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CG图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-1,100</t>
-  </si>
-  <si>
-    <t>0,1,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,-1,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-1,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,-2,120</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGImage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背景替换为1002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CGTest1</t>
+    <t>不填写或填写错误时，文本左上对齐
+为 居中 时，文本上下左右居中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">长度最长10个字
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果对话者ID为0则不显示</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">对话文本的字号，一个对话文本只能是同一个字号
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果文本字号为0且文本内容为空，则不显示对话框</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[FF0000]文本颜色[-]
+[B]粗体[/B]
+[I]斜体[/I]
+\n 主动换行
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果文本字号为0且文本内容为空，则不显示对话框</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,6 +468,29 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -461,7 +542,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +562,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -780,10 +867,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -793,169 +882,179 @@
     <col min="4" max="4" width="23.125" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="6" max="6" width="15.25" customWidth="1"/>
-    <col min="7" max="7" width="31.625" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
-    <col min="9" max="9" width="18.875" customWidth="1"/>
-    <col min="10" max="10" width="17.25" customWidth="1"/>
-    <col min="11" max="11" width="19.25" customWidth="1"/>
-    <col min="12" max="12" width="24.75" customWidth="1"/>
-    <col min="13" max="13" width="16.75" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="15.75" customWidth="1"/>
-    <col min="16" max="16" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="31.625" customWidth="1"/>
+    <col min="9" max="9" width="19.25" customWidth="1"/>
+    <col min="10" max="10" width="18.875" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="19.25" customWidth="1"/>
+    <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="14" max="14" width="16.75" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="14.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="6" t="s">
+      <c r="G3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="N3" s="3" t="s">
+      <c r="N3" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="Q3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4">
         <v>10001001</v>
       </c>
@@ -963,7 +1062,7 @@
         <v>1001</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>10001</v>
@@ -971,29 +1070,29 @@
       <c r="F4">
         <v>32</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4">
+        <v>10001</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>10002</v>
+      </c>
+      <c r="P4" t="s">
         <v>51</v>
       </c>
-      <c r="H4" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4">
-        <v>10001</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4">
-        <v>10002</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
-      </c>
-      <c r="P4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5">
         <v>10001002</v>
       </c>
@@ -1001,7 +1100,7 @@
         <v>1001</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E5">
         <v>10002</v>
@@ -1010,28 +1109,31 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5">
-        <v>10002</v>
-      </c>
-      <c r="L5" t="s">
-        <v>73</v>
-      </c>
-      <c r="M5">
+        <v>56</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5">
+        <v>10002</v>
+      </c>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5">
         <v>10003</v>
       </c>
-      <c r="O5" t="s">
-        <v>71</v>
-      </c>
       <c r="P5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>61</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6">
         <v>10001003</v>
       </c>
@@ -1039,45 +1141,45 @@
         <v>1001</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>10002</v>
+      </c>
+      <c r="M6" t="s">
         <v>65</v>
       </c>
-      <c r="J6">
-        <v>10002</v>
-      </c>
-      <c r="L6" t="s">
-        <v>75</v>
-      </c>
-      <c r="M6">
-        <v>10002</v>
-      </c>
-      <c r="O6" t="s">
-        <v>54</v>
+      <c r="N6">
+        <v>10002</v>
       </c>
       <c r="P6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>51</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7">
         <v>10001004</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>1001</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>10001</v>
@@ -1085,107 +1187,101 @@
       <c r="F7">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7">
+        <v>10002</v>
+      </c>
+      <c r="M7" t="s">
         <v>65</v>
       </c>
-      <c r="J7">
-        <v>10002</v>
-      </c>
-      <c r="L7" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7">
-        <v>10002</v>
-      </c>
-      <c r="O7" t="s">
-        <v>54</v>
+      <c r="N7">
+        <v>10002</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>51</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8">
         <v>10001005</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>1001</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E8">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>32</v>
-      </c>
-      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>10002</v>
+      </c>
+      <c r="M8" t="s">
         <v>65</v>
       </c>
-      <c r="J8">
-        <v>10002</v>
-      </c>
-      <c r="L8" t="s">
-        <v>75</v>
-      </c>
-      <c r="M8">
-        <v>10002</v>
-      </c>
-      <c r="O8" t="s">
-        <v>54</v>
+      <c r="N8">
+        <v>10002</v>
       </c>
       <c r="P8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>51</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9">
         <v>10001006</v>
       </c>
       <c r="C9">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>10002</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N9">
+        <v>10002</v>
+      </c>
+      <c r="P9" t="s">
         <v>62</v>
       </c>
-      <c r="E9">
-        <v>10002</v>
-      </c>
-      <c r="F9">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>123321</v>
-      </c>
-      <c r="J9">
-        <v>10002</v>
-      </c>
-      <c r="L9" t="s">
-        <v>73</v>
-      </c>
-      <c r="M9">
-        <v>10002</v>
-      </c>
-      <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10">
         <v>10001007</v>
       </c>
       <c r="C10">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E10">
         <v>10001</v>
@@ -1193,31 +1289,31 @@
       <c r="F10">
         <v>32</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3333</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>10001</v>
       </c>
-      <c r="L10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M10">
-        <v>10002</v>
-      </c>
-      <c r="O10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="M10" t="s">
+        <v>60</v>
+      </c>
+      <c r="N10">
+        <v>10002</v>
+      </c>
+      <c r="P10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11">
         <v>10001008</v>
       </c>
       <c r="C11">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E11">
         <v>10002</v>
@@ -1225,23 +1321,23 @@
       <c r="F11">
         <v>32</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>12233333</v>
       </c>
-      <c r="J11">
-        <v>10002</v>
-      </c>
-      <c r="L11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M11">
-        <v>10002</v>
-      </c>
-      <c r="O11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="K11">
+        <v>10002</v>
+      </c>
+      <c r="M11" t="s">
+        <v>60</v>
+      </c>
+      <c r="N11">
+        <v>10002</v>
+      </c>
+      <c r="P11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12">
         <v>10001009</v>
       </c>
@@ -1249,7 +1345,7 @@
         <v>1002</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E12">
         <v>10001</v>
@@ -1257,23 +1353,23 @@
       <c r="F12">
         <v>32</v>
       </c>
-      <c r="G12" t="s">
-        <v>77</v>
-      </c>
-      <c r="J12">
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12">
         <v>10001</v>
       </c>
-      <c r="L12" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12">
-        <v>10002</v>
-      </c>
-      <c r="O12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>10002</v>
+      </c>
+      <c r="P12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13">
         <v>10001010</v>
       </c>
@@ -1281,7 +1377,7 @@
         <v>1002</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E13">
         <v>10002</v>
@@ -1289,31 +1385,31 @@
       <c r="F13">
         <v>32</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3333</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>10001</v>
       </c>
-      <c r="L13" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13">
-        <v>10002</v>
-      </c>
-      <c r="O13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13">
+        <v>10002</v>
+      </c>
+      <c r="P13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14">
         <v>10001011</v>
       </c>
       <c r="C14">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E14">
         <v>10001</v>
@@ -1321,31 +1417,31 @@
       <c r="F14">
         <v>32</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3333</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>10001</v>
       </c>
-      <c r="L14" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14">
-        <v>10002</v>
-      </c>
-      <c r="O14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="M14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14">
+        <v>10002</v>
+      </c>
+      <c r="P14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15">
         <v>10001012</v>
       </c>
       <c r="C15">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E15">
         <v>10002</v>
@@ -1353,20 +1449,20 @@
       <c r="F15">
         <v>32</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>3333</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10001</v>
       </c>
-      <c r="L15" t="s">
-        <v>73</v>
-      </c>
-      <c r="M15">
-        <v>10002</v>
-      </c>
-      <c r="O15" t="s">
-        <v>54</v>
+      <c r="M15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N15">
+        <v>10002</v>
+      </c>
+      <c r="P15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1378,10 +1474,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1392,71 +1488,75 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
     <col min="7" max="7" width="43.875" customWidth="1"/>
-    <col min="8" max="8" width="22.125" customWidth="1"/>
-    <col min="9" max="9" width="34.25" customWidth="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1"/>
-    <col min="11" max="11" width="17.5" customWidth="1"/>
-    <col min="12" max="12" width="26" customWidth="1"/>
-    <col min="13" max="13" width="48.5" customWidth="1"/>
-    <col min="14" max="14" width="18" customWidth="1"/>
-    <col min="15" max="15" width="23.25" customWidth="1"/>
-    <col min="16" max="16" width="39" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="10" max="10" width="34.25" customWidth="1"/>
+    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="12" max="12" width="17.5" customWidth="1"/>
+    <col min="13" max="13" width="26" customWidth="1"/>
+    <col min="14" max="14" width="48.5" customWidth="1"/>
+    <col min="15" max="15" width="18" customWidth="1"/>
+    <col min="16" max="16" width="23.25" customWidth="1"/>
+    <col min="17" max="17" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="C1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
       </c>
       <c r="H1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
       <c r="J1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
       <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>5</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" t="s">
-        <v>44</v>
-      </c>
       <c r="O1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1473,143 +1573,152 @@
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" t="s">
         <v>34</v>
       </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>15</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" ht="409.5" customHeight="1">
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="409.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/策划/表格配置/J-剧情.xlsx
+++ b/策划/表格配置/J-剧情.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dialog1" sheetId="1" r:id="rId1"/>
@@ -869,10 +869,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1117,6 +1117,9 @@
       <c r="I5" t="s">
         <v>46</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
       <c r="K5">
         <v>10002</v>
       </c>
@@ -1419,6 +1422,9 @@
       </c>
       <c r="H14">
         <v>3333</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
       </c>
       <c r="K14">
         <v>10001</v>
@@ -1476,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
